--- a/Hometask Data Testing approaches/TestCaseFormat.xlsx
+++ b/Hometask Data Testing approaches/TestCaseFormat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiya_Viktarovi\Documents\GitHub\Data-Quality-Engineering-Mentoring-Program-Intermediate-Level-9\Hometask Data Testing approaches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF3C748-D128-44FA-81BD-F8793FCE9A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CE919F-00DE-4DE2-A4CE-AD7DD12F2415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="166">
   <si>
     <t>Source</t>
   </si>
@@ -300,9 +300,6 @@
     <t xml:space="preserve">SELECT * FROM forecast_incremental WHERE FCSR_RATE_1 IS NULL AND  FCSR_RATE IS NULL </t>
   </si>
   <si>
-    <t>SELECT DISTINCT EXTRACT(TIMEZONE_HOUR FROM IncertDateTime) AS time_zone_hour, EXTRACT(TIMEZONE_HOUR FROM UpdateDateTime) AS time_zone_hour1,  EXTRACT(TIMEZONE_HOUR FROM TO_TIMESTAMP(YEAR_MOUNTH)) AS time_zone_hour2 FROM forecast_incremental</t>
-  </si>
-  <si>
     <t>SELECT STORE_GROUP_1 FROM forecast_incremental where STORE_GROUP1  NOT IN ('AA.COM', 'BB.COM', 'CC.COM')</t>
   </si>
   <si>
@@ -327,9 +324,6 @@
     <t>STORE_GROUP_1</t>
   </si>
   <si>
-    <t>IncertDateTime, UpdateDateTime,  YEAR_MOUNTH</t>
-  </si>
-  <si>
     <t>FCSR_RATE, FCSR_RATE_1</t>
   </si>
   <si>
@@ -408,18 +402,9 @@
     <t>Data should be successfully ingested from external storage to AWS S3.</t>
   </si>
   <si>
-    <t>Data Integrity</t>
-  </si>
-  <si>
     <t>Data quality</t>
   </si>
   <si>
-    <t>Test the pipeline to ensure that it correctly identifies bad data and moves it to quarantine.</t>
-  </si>
-  <si>
-    <t>Bad data should be rejected and moved to quarantine until further instructions.</t>
-  </si>
-  <si>
     <t>Data Structure</t>
   </si>
   <si>
@@ -468,12 +453,6 @@
     <t>Data merging</t>
   </si>
   <si>
-    <t>Test the incremental load to ensure that data is collected from incremental single-source data sets, de-duped and merged into the full data set of that single-source.</t>
-  </si>
-  <si>
-    <t>Data should be successfully merged into the full data set of that single-source.</t>
-  </si>
-  <si>
     <t>Data Persistence</t>
   </si>
   <si>
@@ -505,6 +484,81 @@
   </si>
   <si>
     <t>Data should be successfully collected from incremental single-source data sets, de-duped and merged into the full data set of that single-source.</t>
+  </si>
+  <si>
+    <t>s3://test-bucket/cleansed/cleanced/forecast/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IncertDateTime, UpdateDateTime,  </t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT EXTRACT(TIMEZONE_HOUR FROM IncertDateTime) AS time_zone_hour, EXTRACT(TIMEZONE_HOUR FROM UpdateDateTime) AS time_zone_hour1 FROM forecast_incremental</t>
+  </si>
+  <si>
+    <t>Check if the pipeline is triggered at the required time (5 PM UTC) and is successful.</t>
+  </si>
+  <si>
+    <t>Pipeline triggered succesfully at 5 PM UTC time</t>
+  </si>
+  <si>
+    <t>If no files arrived by the required time, trigger an alert notification to the client.</t>
+  </si>
+  <si>
+    <t>Alert notification send to the client if no files arrived by 5 PM UTC time</t>
+  </si>
+  <si>
+    <t>In case there are no new files on storage next day, pipeline should not process yesterday’s file again</t>
+  </si>
+  <si>
+    <t>Yesterday files not processed in case there are no new files on storage</t>
+  </si>
+  <si>
+    <t>Check if the pipeline rejects files that do not follow the required naming convention: ForecastData_YYYYMMDD.xlsx.</t>
+  </si>
+  <si>
+    <t>The pipeline rejects files that do not follow the required naming convention: ForecastData_YYYYMMDD.xlsx.</t>
+  </si>
+  <si>
+    <t>Quarantine</t>
+  </si>
+  <si>
+    <t>Quarantine check</t>
+  </si>
+  <si>
+    <t>Check if the pipeline moves bad data that does not pass data quality checks to the Quarantine location.</t>
+  </si>
+  <si>
+    <t>Pipeline moves bad data that does not pass data quality checks to the Quarantine location.</t>
+  </si>
+  <si>
+    <t>Data processing</t>
+  </si>
+  <si>
+    <t>Target table creation</t>
+  </si>
+  <si>
+    <t>Check if the pipeline creates the required Hive table (forecast_cleansed) once data is processed based on Cleansed layer data.</t>
+  </si>
+  <si>
+    <t>The pipeline creates the required Hive table (forecast_cleansed) once data is processed based on Cleansed layer data.</t>
+  </si>
+  <si>
+    <t>System columns</t>
+  </si>
+  <si>
+    <t>Check if the pipeline correctly populates system columns (InsertDateTime, UpdateDateTime, and file_name) in the target table.</t>
+  </si>
+  <si>
+    <t>The pipeline correctly populates system columns (InsertDateTime, UpdateDateTime, and file_name) in the target table.</t>
+  </si>
+  <si>
+    <t>The pipeline correctly populates system columns ( UpdateDateTime, and file_name) in the target table.</t>
+  </si>
+  <si>
+    <t>Check if the pipeline correctly populates system columns (UpdateDateTime, and file_name) in the target table.</t>
+  </si>
+  <si>
+    <t>Partitioning</t>
   </si>
 </sst>
 </file>
@@ -639,15 +693,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -660,15 +705,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -999,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCCC296-2BB6-4C22-A4E3-D35AA4A9CD78}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1018,7 +1068,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
@@ -1040,271 +1090,375 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="8">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="E2" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="F3" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="G3" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="16">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A10" s="16">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="16">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="16">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="16">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="16">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="16">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A16" s="16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="16">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="C17" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1356,6 +1510,15 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1366,8 +1529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1412,786 +1575,775 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12" t="s">
+      <c r="H6" s="9"/>
+      <c r="I6" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="4" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="1:9" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="1:9" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="1:9" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="10">
+        <v>10</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="1:9" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="10">
+        <v>11</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:9" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="1:9" s="4" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="9">
+        <v>12</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="4" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
+        <v>13</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
+        <v>14</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="9">
+        <v>15</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="4" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="9">
+        <v>16</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <v>17</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="9">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12" t="s">
+      <c r="B25" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="B26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A27" s="9">
         <v>20</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12" t="s">
+      <c r="B27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="4" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+      <c r="A28" s="9">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12" t="s">
+      <c r="B28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="4" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="14">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="12">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="12" t="s">
+      <c r="B29" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+    </row>
+    <row r="31" spans="1:9" s="4" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="14">
         <v>23</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="11">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="B31" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="14" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="13">
-        <v>7</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="11">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="9">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="C31" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="15" t="s">
+      <c r="D31" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="15" t="s">
+      <c r="F31" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:9" s="14" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="13">
-        <v>10</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="14" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="18"/>
-    </row>
-    <row r="15" spans="1:9" s="14" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" s="18"/>
-    </row>
-    <row r="16" spans="1:9" s="14" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="13">
-        <v>11</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="14" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" s="18"/>
-    </row>
-    <row r="18" spans="1:9" s="14" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I18" s="18"/>
-    </row>
-    <row r="19" spans="1:9" s="4" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="12">
-        <v>12</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="4" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="12">
-        <v>13</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="12">
-        <v>14</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="12">
-        <v>15</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="4" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="12">
-        <v>16</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A24" s="12">
-        <v>17</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="12">
-        <v>18</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="12">
-        <v>19</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A27" s="12">
-        <v>20</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="4" customFormat="1" ht="116" x14ac:dyDescent="0.35">
-      <c r="A28" s="12">
-        <v>21</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="4" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="10">
-        <v>22</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-    </row>
-    <row r="31" spans="1:9" s="4" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="10">
-        <v>23</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:I1" xr:uid="{DB9E0EBC-55C6-446F-BB54-B15842229FFE}"/>
   <mergeCells count="24">
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
     <mergeCell ref="I10:I12"/>
     <mergeCell ref="I13:I15"/>
     <mergeCell ref="I16:I18"/>
@@ -2207,6 +2359,15 @@
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="F10:F12"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Hometask Data Testing approaches/TestCaseFormat.xlsx
+++ b/Hometask Data Testing approaches/TestCaseFormat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiya_Viktarovi\Documents\GitHub\Data-Quality-Engineering-Mentoring-Program-Intermediate-Level-9\Hometask Data Testing approaches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CE919F-00DE-4DE2-A4CE-AD7DD12F2415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94AD7F9-573C-49B0-82EE-642A43825AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="2" r:id="rId1"/>
@@ -148,9 +148,6 @@
     <t>Number of rows is the same as in ForecastData_20230318.xlsx in s3://test-bucket/lz/forecast/</t>
   </si>
   <si>
-    <t>Uniqueness by rows</t>
-  </si>
-  <si>
     <t>No rows in query result</t>
   </si>
   <si>
@@ -185,34 +182,13 @@
 WHERE table_name = 'forecast_quarantine';</t>
   </si>
   <si>
-    <t>Select count (*) from forecast_incremental WHERE date_trunc('day', InsertDateTime) = current_date</t>
-  </si>
-  <si>
-    <t>Select count (*) from forecast_quarantine WHERE date_trunc('day', InsertDateTime) = current_date</t>
-  </si>
-  <si>
-    <t>Select count (*) from forecast_row WHERE date_trunc('day', InsertDateTime) = current_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sum of records from forecast_incremental and forecast_quarantine equal to forecast_row count </t>
-  </si>
-  <si>
     <t>Completeness of merging data</t>
   </si>
   <si>
-    <t>Select count (*) from forecast_merged WHERE date_trunc('day', InsertDateTime) = current_date</t>
-  </si>
-  <si>
-    <t>Sum of inserted and updated records from forecast_merged equal to number o records in forecast_incremental</t>
-  </si>
-  <si>
     <t>Files itself</t>
   </si>
   <si>
     <t>Unique by primary key</t>
-  </si>
-  <si>
-    <t>Select count (*) from forecast_cleansed WHERE date_trunc('day', UpdareDateTime) = current_date</t>
   </si>
   <si>
     <t>SELECT column_name, data_type, character_maximum_length, is_nullable
@@ -223,12 +199,6 @@
     <t>Accuracy by forecast rate should not be greater than 100%</t>
   </si>
   <si>
-    <t>Accuracy by FRCT_RATE_2 can be empty in case FCST_RATE and FCST_RATE_1 is not null</t>
-  </si>
-  <si>
-    <t>Acccuracy by FRCT_RATE_1 can be empty if FCST_RATE is not null</t>
-  </si>
-  <si>
     <t>Accuracy by Dates should be specified in UTC time zone</t>
   </si>
   <si>
@@ -261,9 +231,6 @@
     <t>Accuracy  by STORE_GROUP2 has allowed values: AA_1.COM’, ‘AA_2.COM’,’BB_1.COM’, ‘CC_1.COM’, ‘CC_2.COM’, ’CC_3.COM’</t>
   </si>
   <si>
-    <t>Accuracy  by hierarchy</t>
-  </si>
-  <si>
     <t xml:space="preserve">Consistency by same forecast rate value for same store groups </t>
   </si>
   <si>
@@ -274,13 +241,6 @@
   </si>
   <si>
     <t>Select min (FCST_RATE), max (FCST_RATE) from forecast_incremental GROUP BY YEAR_MONTH, STORE_GROUP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT COUNT(*) as num_duplicates
-FROM forecast_raw
-GROUP BY YEAR_MONTH, STORE_GROUP,  FCST_RATE, STORE_GROUP1, FCST_RATE1, STORE_GROUP2, FCST_RATE2 
-HAVING COUNT(*) &gt; 1;</t>
   </si>
   <si>
     <t>SELECT COUNT(*) as num_duplicates
@@ -348,9 +308,6 @@
     <t>No.</t>
   </si>
   <si>
-    <t>Forecast_20230308.xlsx - positive; Forecast_20230308 dublicates.xlsx  - negative</t>
-  </si>
-  <si>
     <t>Forecast_20230308.xlsx - positive; Forecast_20230308_out_of_range.xlsx - negative</t>
   </si>
   <si>
@@ -559,6 +516,48 @@
   </si>
   <si>
     <t>Partitioning</t>
+  </si>
+  <si>
+    <t>Forecast_20230308TST.xlsx</t>
+  </si>
+  <si>
+    <t>Check if pipeline rejects file in not .xlsx format</t>
+  </si>
+  <si>
+    <t>The pipeline rejects files with not .xlsx format</t>
+  </si>
+  <si>
+    <t>Forecast_20230308.txt</t>
+  </si>
+  <si>
+    <t>Data Processing</t>
+  </si>
+  <si>
+    <t>Check if Data on Raw and Cleanced layers in Parquet format</t>
+  </si>
+  <si>
+    <t>Data on Raw and Cleanced layers has Parquet format</t>
+  </si>
+  <si>
+    <t>Consistency by FRCT_RATE_2 can be empty in case FCST_RATE and FCST_RATE_1 is not null</t>
+  </si>
+  <si>
+    <t>Consistency by FRCT_RATE_1 can be empty if FCST_RATE is not null</t>
+  </si>
+  <si>
+    <t>Consistency  by hierarchy</t>
+  </si>
+  <si>
+    <t>Select (Select count (*) from forecast_row WHERE date_trunc('day', InsertDateTime) = current_date) - (Select count (*) from forecast_incremental WHERE date_trunc('day', InsertDateTime) = current_date) -(Select count (*) from forecast_quarantine WHERE date_trunc('day', InsertDateTime) = current_date)</t>
+  </si>
+  <si>
+    <t>select 
+(Select count (*) from forecast_incremental WHERE date_trunc('day', InsertDateTime) = current_date)-
+(Select count (*) from forecast_merged WHERE date_trunc('day', InsertDateTime) = current_date)-
+(Select count (*) from forecast_merged WHERE date_trunc('day', UpdareDateTime) = current_date)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result of query =0 </t>
   </si>
 </sst>
 </file>
@@ -619,7 +618,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -662,12 +661,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -708,17 +744,22 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -743,13 +784,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>69849</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>2752725</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>758019</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1049,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCCC296-2BB6-4C22-A4E3-D35AA4A9CD78}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1068,7 +1109,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
@@ -1090,393 +1131,418 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="16">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="14">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="14"/>
+      <c r="B8" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="14">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="14">
+        <v>7</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="G10" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A11" s="14">
+        <v>8</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A12" s="14">
+        <v>9</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="14">
+        <v>10</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="16">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="C14" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="D14" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="16">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="16">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A6" s="16">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="16">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="E14" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="G14" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="14">
+        <v>12</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="14">
+        <v>13</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="14">
+        <v>14</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A18" s="14">
+        <v>15</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="C18" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="16">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="16">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A10" s="16">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="16">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="16">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E12" s="17" t="s">
+      <c r="E18" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F18" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="16">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="16">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="16">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A16" s="16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E16" s="17" t="s">
+      <c r="G18" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="14">
+        <v>16</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="D19" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="16">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="18"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="E19" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1520,6 +1586,24 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1527,10 +1611,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1594,7 +1678,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
@@ -1618,7 +1702,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -1646,7 +1730,7 @@
         <v>20</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
@@ -1673,7 +1757,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
@@ -1700,7 +1784,7 @@
         <v>23</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
@@ -1718,7 +1802,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>32</v>
@@ -1727,13 +1811,13 @@
         <v>23</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -1763,611 +1847,576 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="9" t="s">
+    <row r="9" spans="1:9" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15">
+        <v>9</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="C9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>35</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14">
-        <v>9</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>36</v>
-      </c>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>23</v>
-      </c>
+      <c r="F10" s="15"/>
       <c r="G10" s="9" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="14"/>
+        <v>47</v>
+      </c>
+      <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:9" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="9" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="1:9" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="10">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="1:9" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="10">
-        <v>10</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="E12" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>42</v>
-      </c>
+      <c r="F12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>23</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F13" s="10"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H13" s="18"/>
+      <c r="I13" s="16"/>
+    </row>
+    <row r="14" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="13" t="s">
-        <v>41</v>
+      <c r="E14" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="1:9" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="10"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="1:9" s="11" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="10">
+        <v>11</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="G15" s="10"/>
-      <c r="H15" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" spans="1:9" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="10">
-        <v>11</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="H15" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="11" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H16" s="18"/>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="1:9" s="11" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="13" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" s="15"/>
-    </row>
-    <row r="18" spans="1:9" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I18" s="15"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" spans="1:9" s="4" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
+        <v>12</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="19" spans="1:9" s="4" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>40</v>
-      </c>
       <c r="F19" s="9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="4" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>39</v>
-      </c>
       <c r="F20" s="9" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>39</v>
-      </c>
       <c r="F21" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="4" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>39</v>
-      </c>
       <c r="F22" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>99</v>
-      </c>
       <c r="H22" s="9" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="4" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>39</v>
-      </c>
       <c r="F23" s="9" t="s">
-        <v>142</v>
+        <v>54</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>39</v>
-      </c>
       <c r="F24" s="9" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>39</v>
-      </c>
       <c r="F25" s="9" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>39</v>
-      </c>
       <c r="F26" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="4" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E27" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>39</v>
-      </c>
       <c r="F27" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="4" customFormat="1" ht="116" x14ac:dyDescent="0.35">
-      <c r="A28" s="9">
-        <v>21</v>
-      </c>
-      <c r="B28" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="4" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="15">
+        <v>22</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="4" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="14">
-        <v>22</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>70</v>
-      </c>
+      <c r="F28" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
       <c r="E29" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+    </row>
+    <row r="30" spans="1:9" s="4" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="15">
+        <v>23</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="G29" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-    </row>
-    <row r="31" spans="1:9" s="4" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="14">
-        <v>23</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="14" t="s">
+      <c r="G30" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H30" s="15" t="s">
         <v>70</v>
       </c>
+      <c r="I30" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
       <c r="E31" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F31" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="I31" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:I1" xr:uid="{DB9E0EBC-55C6-446F-BB54-B15842229FFE}"/>
-  <mergeCells count="24">
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
+  <mergeCells count="26">
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="I28:I29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Hometask Data Testing approaches/TestCaseFormat.xlsx
+++ b/Hometask Data Testing approaches/TestCaseFormat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiya_Viktarovi\Documents\GitHub\Data-Quality-Engineering-Mentoring-Program-Intermediate-Level-9\Hometask Data Testing approaches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94AD7F9-573C-49B0-82EE-642A43825AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F1641E-C47E-4C2E-90AB-149B52A14489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="2" r:id="rId1"/>
@@ -748,9 +748,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -758,6 +755,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1092,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCCC296-2BB6-4C22-A4E3-D35AA4A9CD78}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>95</v>
@@ -1269,7 +1269,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
       <c r="B8" s="8" t="s">
         <v>157</v>
       </c>
@@ -1291,7 +1293,7 @@
     </row>
     <row r="9" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>101</v>
@@ -1314,7 +1316,7 @@
     </row>
     <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>106</v>
@@ -1337,7 +1339,7 @@
     </row>
     <row r="11" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>143</v>
@@ -1360,7 +1362,7 @@
     </row>
     <row r="12" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>143</v>
@@ -1383,7 +1385,7 @@
     </row>
     <row r="13" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>143</v>
@@ -1406,7 +1408,7 @@
     </row>
     <row r="14" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>110</v>
@@ -1429,7 +1431,7 @@
     </row>
     <row r="15" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>117</v>
@@ -1452,7 +1454,7 @@
     </row>
     <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>101</v>
@@ -1475,7 +1477,7 @@
     </row>
     <row r="17" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>101</v>
@@ -1498,7 +1500,7 @@
     </row>
     <row r="18" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>115</v>
@@ -1521,7 +1523,7 @@
     </row>
     <row r="19" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>100</v>
@@ -1613,8 +1615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1849,7 +1851,7 @@
     </row>
     <row r="9" spans="1:9" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>25</v>
@@ -1910,7 +1912,7 @@
     </row>
     <row r="12" spans="1:9" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>25</v>
@@ -1928,10 +1930,10 @@
         <v>23</v>
       </c>
       <c r="G12" s="10"/>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="19" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1945,8 +1947,8 @@
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="16"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="19"/>
     </row>
     <row r="14" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
@@ -1958,12 +1960,12 @@
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="16"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="19"/>
     </row>
     <row r="15" spans="1:9" s="11" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>37</v>
@@ -1981,10 +1983,10 @@
         <v>23</v>
       </c>
       <c r="G15" s="10"/>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="19" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1998,8 +2000,8 @@
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="16"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="19"/>
     </row>
     <row r="17" spans="1:9" s="11" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
@@ -2011,12 +2013,12 @@
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="16"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="19"/>
     </row>
     <row r="18" spans="1:9" s="4" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>25</v>
@@ -2045,7 +2047,7 @@
     </row>
     <row r="19" spans="1:9" s="4" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>25</v>
@@ -2074,7 +2076,7 @@
     </row>
     <row r="20" spans="1:9" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>25</v>
@@ -2103,7 +2105,7 @@
     </row>
     <row r="21" spans="1:9" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>25</v>
@@ -2132,7 +2134,7 @@
     </row>
     <row r="22" spans="1:9" s="4" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>25</v>
@@ -2161,7 +2163,7 @@
     </row>
     <row r="23" spans="1:9" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>25</v>
@@ -2190,7 +2192,7 @@
     </row>
     <row r="24" spans="1:9" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>25</v>
@@ -2219,7 +2221,7 @@
     </row>
     <row r="25" spans="1:9" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>25</v>
@@ -2248,7 +2250,7 @@
     </row>
     <row r="26" spans="1:9" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>25</v>
@@ -2277,7 +2279,7 @@
     </row>
     <row r="27" spans="1:9" s="4" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>25</v>
@@ -2306,7 +2308,7 @@
     </row>
     <row r="28" spans="1:9" s="4" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="15">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>25</v>
@@ -2348,7 +2350,7 @@
     </row>
     <row r="30" spans="1:9" s="4" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="15">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>25</v>
@@ -2391,16 +2393,6 @@
   </sheetData>
   <autoFilter ref="B1:I1" xr:uid="{DB9E0EBC-55C6-446F-BB54-B15842229FFE}"/>
   <mergeCells count="26">
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="F30:F31"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="I12:I14"/>
     <mergeCell ref="I15:I17"/>
@@ -2417,6 +2409,16 @@
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="I28:I29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H15:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
